--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Trimestral.xlsx
@@ -914,7 +914,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>62390</v>
+        <v>62398</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>93686</v>
+        <v>93691</v>
       </c>
     </row>
     <row r="50" spans="1:2">

--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Serie</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -941,6 +944,14 @@
         <v>96870</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>118417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
